--- a/biology/Médecine/Femi_Oyebode/Femi_Oyebode.xlsx
+++ b/biology/Médecine/Femi_Oyebode/Femi_Oyebode.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Femi Oyebode est un psychiatre nigérian, professeur à la retraite et chef du département de psychiatrie à l'Université de Birmingham. Il a étudié les relations entre la littérature et la psychiatrie. Ses recherches ont porté sur la psychopathologie descriptive et le syndrome délirant d'identification erronée (en). Il a reçu le prix 2016 du Royal College of Psychiatrists (en) pour l'ensemble de ses travaux et recherches.
 </t>
@@ -511,9 +523,11 @@
           <t>Enfance et éducation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Oyebode est né à Lagos[1],[2]. Il s'est d'abord intéressé à la littérature et à la poésie, mais a été encouragé à devenir médecin par son père. Il a fréquenté un internat où il a dû choisir entre se spécialiser en sciences ou en sciences humaines. Il a finalement opté pour la biologie. Il a étudié la médecine à l'université d'Ibadan et a déménagé à Newcastle upon Tyne en 1979. Il y complète sa formation supérieure sous la direction d'Allan Ker (en), Hamish McClelland et Kurt Schapira[1]. Il a obtenu son MRCPsych (membre du Royal College of Psychiatrists (en)) en 1983 et a rapidement été nommé psychiatre consultant au University Hospitals Birmingham NHS Foundation Trust (en).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oyebode est né à Lagos,. Il s'est d'abord intéressé à la littérature et à la poésie, mais a été encouragé à devenir médecin par son père. Il a fréquenté un internat où il a dû choisir entre se spécialiser en sciences ou en sciences humaines. Il a finalement opté pour la biologie. Il a étudié la médecine à l'université d'Ibadan et a déménagé à Newcastle upon Tyne en 1979. Il y complète sa formation supérieure sous la direction d'Allan Ker (en), Hamish McClelland et Kurt Schapira. Il a obtenu son MRCPsych (membre du Royal College of Psychiatrists (en)) en 1983 et a rapidement été nommé psychiatre consultant au University Hospitals Birmingham NHS Foundation Trust (en).
 </t>
         </is>
       </c>
@@ -542,14 +556,86 @@
           <t>Recherche et carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2005, Oyebode a repris l'écriture des Sim's Symptoms in the Mind de l'auteur original Andrew Sims (en)[3]. Sim's Symptoms in the Mind est un manuel qui est devenu une introduction de premier plan à la psychopathologie clinique et qui a été traduit en estonien, coréen, portugais et italien. Il en est actuellement à sa sixième édition[4]. Sa thèse de médecine, qu'il a terminée en 1989, a été supervisée par Ken Davison[1]. Il a été nommé directeur médical du South Birmingham Mental Health Trust en 1997[5]. Il a complété un autre doctorat en philosophie de l'esprit à l'université de Swansea en 1998[6].
-Oyebode était psychiatre consultant au Centre national de santé mentale de Birmingham jusqu'à sa retraite en 2021. Il a été nommé directeur du South Birmingham Mental Health Trust en 1997. En 2002, il a été nommé Chief Examining Officer au Royal College of Psychiatrists. Ses recherches portent sur la neuropsychiatrie du syndrome délirant d'identification erronée (en). Il a été chef du département de psychiatrie à l'université de Birmingham de 2003 à 2009[7]. En 2016, il a reçu le Royal College of Psychiatrists (en) Lifetime Achievement Award[8].
-Poésie
-Parallèlement à sa carrière de chercheur, Oyebode s'intéresse à l'intersection de la psychiatrie de la littérature. Il a écrit sur la nécessité des sciences humaines dans la formation médicale postdoctorale[9]. Il a publié plus de sept volumes de poésie[10],[11]. Il a reçu une Legend Recognition aux Creativity and Arts Awards en 2017[5].
-Publications (sélection)
-Parmi ses publications figurent :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2005, Oyebode a repris l'écriture des Sim's Symptoms in the Mind de l'auteur original Andrew Sims (en). Sim's Symptoms in the Mind est un manuel qui est devenu une introduction de premier plan à la psychopathologie clinique et qui a été traduit en estonien, coréen, portugais et italien. Il en est actuellement à sa sixième édition. Sa thèse de médecine, qu'il a terminée en 1989, a été supervisée par Ken Davison. Il a été nommé directeur médical du South Birmingham Mental Health Trust en 1997. Il a complété un autre doctorat en philosophie de l'esprit à l'université de Swansea en 1998.
+Oyebode était psychiatre consultant au Centre national de santé mentale de Birmingham jusqu'à sa retraite en 2021. Il a été nommé directeur du South Birmingham Mental Health Trust en 1997. En 2002, il a été nommé Chief Examining Officer au Royal College of Psychiatrists. Ses recherches portent sur la neuropsychiatrie du syndrome délirant d'identification erronée (en). Il a été chef du département de psychiatrie à l'université de Birmingham de 2003 à 2009. En 2016, il a reçu le Royal College of Psychiatrists (en) Lifetime Achievement Award.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Femi_Oyebode</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Femi_Oyebode</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Recherche et carrière</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parallèlement à sa carrière de chercheur, Oyebode s'intéresse à l'intersection de la psychiatrie de la littérature. Il a écrit sur la nécessité des sciences humaines dans la formation médicale postdoctorale. Il a publié plus de sept volumes de poésie,. Il a reçu une Legend Recognition aux Creativity and Arts Awards en 2017.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Femi_Oyebode</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Femi_Oyebode</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Recherche et carrière</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publications (sélection)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parmi ses publications figurent :
 Femi Oyebode, Sims' Symptoms in the Mind: Textbook of Descriptive Psychopathology, 6th Edition, 2018 (ISBN 978-0702074011)
 Femi Oyebode, Mindreadings: Literature and Psychiatry, RCPsych Publications, 2009 (ISBN 978-1904671602)
 Femi Oyebode, Madness at the Theatre, RCPsych Publications, 2012 (ISBN 978-1908020420)
